--- a/TashqiBloklar.xlsx
+++ b/TashqiBloklar.xlsx
@@ -7,21 +7,1313 @@
     <workbookView windowWidth="17075" windowHeight="8472"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="tashqi" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tashqi!$A$1:$BG$274</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="421">
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>КОМПЛЕКТНОСТЬ</t>
+  </si>
+  <si>
+    <t>DESIGNATION</t>
+  </si>
+  <si>
+    <t>DB3AA</t>
+  </si>
+  <si>
+    <t>ART-07MA</t>
+  </si>
+  <si>
+    <t>EA0AA</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>S09B-HC6E-N</t>
+  </si>
+  <si>
+    <t>EA1AA</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>S18B-HC8E-N</t>
+  </si>
+  <si>
+    <t>EA2AA</t>
+  </si>
+  <si>
+    <t>EA4AA</t>
+  </si>
+  <si>
+    <t>ART-09HL</t>
+  </si>
+  <si>
+    <t>EA5AA</t>
+  </si>
+  <si>
+    <t>ART-12HL</t>
+  </si>
+  <si>
+    <t>EA6AA</t>
+  </si>
+  <si>
+    <t>EAFAA</t>
+  </si>
+  <si>
+    <t>EAGAA</t>
+  </si>
+  <si>
+    <t>S12B-HC6E-N</t>
+  </si>
+  <si>
+    <t>EAHAA</t>
+  </si>
+  <si>
+    <t>S18B-LB1E-N</t>
+  </si>
+  <si>
+    <t>EAIAA</t>
+  </si>
+  <si>
+    <t>EAJAA</t>
+  </si>
+  <si>
+    <t>EAKAA</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>S18B STAAF18HE-BA</t>
+  </si>
+  <si>
+    <t>EALAA</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>S24B-HB2E-N</t>
+  </si>
+  <si>
+    <t>EAMAA</t>
+  </si>
+  <si>
+    <t>EANAA</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>EAOAA</t>
+  </si>
+  <si>
+    <t>EASAA</t>
+  </si>
+  <si>
+    <t>S12BK STAAF12BE-AV</t>
+  </si>
+  <si>
+    <t>EAUAA</t>
+  </si>
+  <si>
+    <t>S24B STAAF24HE-BH</t>
+  </si>
+  <si>
+    <t>EB2AA</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>S12B STAAF12HE-AT</t>
+  </si>
+  <si>
+    <t>EB3AA</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>S09B-HB1E-N</t>
+  </si>
+  <si>
+    <t>EB4AA</t>
+  </si>
+  <si>
+    <t>S12B-HC7E-N</t>
+  </si>
+  <si>
+    <t>EB5AA</t>
+  </si>
+  <si>
+    <t>EB6AA</t>
+  </si>
+  <si>
+    <t>EBFAA</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>S09BK STAAF09BE-AL</t>
+  </si>
+  <si>
+    <t>EBGAA</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>S12BK STAAF12BE-AW</t>
+  </si>
+  <si>
+    <t>EBHAA</t>
+  </si>
+  <si>
+    <t>EBIAA</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>S18B-HB1E-N</t>
+  </si>
+  <si>
+    <t>EBJAA</t>
+  </si>
+  <si>
+    <t>EBLAA</t>
+  </si>
+  <si>
+    <t>S09BK-GA2E-N</t>
+  </si>
+  <si>
+    <t>EBMAA</t>
+  </si>
+  <si>
+    <t>S12BK-GA2E-N</t>
+  </si>
+  <si>
+    <t>EBPAA</t>
+  </si>
+  <si>
+    <t>S12BK-GA1E-N</t>
+  </si>
+  <si>
+    <t>EBQAA</t>
+  </si>
+  <si>
+    <t>EBZAA</t>
+  </si>
+  <si>
+    <t>EC1AA</t>
+  </si>
+  <si>
+    <t>EC2AA</t>
+  </si>
+  <si>
+    <t>EC3AA</t>
+  </si>
+  <si>
+    <t>EC4AA</t>
+  </si>
+  <si>
+    <t>EC5AA</t>
+  </si>
+  <si>
+    <t>EC6AA</t>
+  </si>
+  <si>
+    <t>EC7AA</t>
+  </si>
+  <si>
+    <t>EC8AA</t>
+  </si>
+  <si>
+    <t>S24B</t>
+  </si>
+  <si>
+    <t>EC9AA</t>
+  </si>
+  <si>
+    <t>ART09HL</t>
+  </si>
+  <si>
+    <t>ECAAA</t>
+  </si>
+  <si>
+    <t>ART12HL</t>
+  </si>
+  <si>
+    <t>ECBAA</t>
+  </si>
+  <si>
+    <t>S12BK</t>
+  </si>
+  <si>
+    <t>ECCAA</t>
+  </si>
+  <si>
+    <t>ECDAA</t>
+  </si>
+  <si>
+    <t>ECEAA</t>
+  </si>
+  <si>
+    <t>ECGAA</t>
+  </si>
+  <si>
+    <t>ECHAA</t>
+  </si>
+  <si>
+    <t>ECIAA</t>
+  </si>
+  <si>
+    <t>ECLAA</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>S18BK STAAF18BE-BE</t>
+  </si>
+  <si>
+    <t>ECMAA</t>
+  </si>
+  <si>
+    <t>S18BK-GA1E-N</t>
+  </si>
+  <si>
+    <t>ECNAA</t>
+  </si>
+  <si>
+    <t>S24BK-HA1E-N</t>
+  </si>
+  <si>
+    <t>ECPAA</t>
+  </si>
+  <si>
+    <t>ECQAA</t>
+  </si>
+  <si>
+    <t>S09B-SC6E-N</t>
+  </si>
+  <si>
+    <t>ECRAA</t>
+  </si>
+  <si>
+    <t>ECSAA</t>
+  </si>
+  <si>
+    <t>S09B(F)-HB1E-N</t>
+  </si>
+  <si>
+    <t>ECTAA</t>
+  </si>
+  <si>
+    <t>S12B(F)-HB1E-N</t>
+  </si>
+  <si>
+    <t>ECUAA</t>
+  </si>
+  <si>
+    <t>ECWAA</t>
+  </si>
+  <si>
+    <t>S09BE</t>
+  </si>
+  <si>
+    <t>ECXAA</t>
+  </si>
+  <si>
+    <t>ECYAA</t>
+  </si>
+  <si>
+    <t>S09B-SD6E-N</t>
+  </si>
+  <si>
+    <t>ECZAA</t>
+  </si>
+  <si>
+    <t>S12B STAAF12HE-AQ</t>
+  </si>
+  <si>
+    <t>ED1AA</t>
+  </si>
+  <si>
+    <t>ED2AA</t>
+  </si>
+  <si>
+    <t>S12B-SD6E-N</t>
+  </si>
+  <si>
+    <t>ED3AA</t>
+  </si>
+  <si>
+    <t>S18B STAAF18HE-CP</t>
+  </si>
+  <si>
+    <t>ED4AA</t>
+  </si>
+  <si>
+    <t>ED5AA</t>
+  </si>
+  <si>
+    <t>S18B-SD8E-N</t>
+  </si>
+  <si>
+    <t>ED6AA</t>
+  </si>
+  <si>
+    <t>ED7AA</t>
+  </si>
+  <si>
+    <t>S12BE</t>
+  </si>
+  <si>
+    <t>ED8AA</t>
+  </si>
+  <si>
+    <t>ED9AA</t>
+  </si>
+  <si>
+    <t>EDAAA</t>
+  </si>
+  <si>
+    <t>S18BE</t>
+  </si>
+  <si>
+    <t>EDBAA</t>
+  </si>
+  <si>
+    <t>EDCAA</t>
+  </si>
+  <si>
+    <t>EDDAA</t>
+  </si>
+  <si>
+    <t>EDEAA</t>
+  </si>
+  <si>
+    <t>S09B STAAF09HE-AC</t>
+  </si>
+  <si>
+    <t>EDFAA</t>
+  </si>
+  <si>
+    <t>S09B-HD6E-N</t>
+  </si>
+  <si>
+    <t>EDGAA</t>
+  </si>
+  <si>
+    <t>EDHAA</t>
+  </si>
+  <si>
+    <t>S12B STAAF12HE-AN</t>
+  </si>
+  <si>
+    <t>EDIAA</t>
+  </si>
+  <si>
+    <t>EDJAA</t>
+  </si>
+  <si>
+    <t>S18B-HD8E-N</t>
+  </si>
+  <si>
+    <t>EDKAA</t>
+  </si>
+  <si>
+    <t>S18B STAAF18HE-AZ</t>
+  </si>
+  <si>
+    <t>EDLAA</t>
+  </si>
+  <si>
+    <t>EDMAA</t>
+  </si>
+  <si>
+    <t>EDNAA</t>
+  </si>
+  <si>
+    <t>EDOAA</t>
+  </si>
+  <si>
+    <t>EDPAA</t>
+  </si>
+  <si>
+    <t>EDQAA</t>
+  </si>
+  <si>
+    <t>EDRAA</t>
+  </si>
+  <si>
+    <t>EDSAA</t>
+  </si>
+  <si>
+    <t>EDTAA</t>
+  </si>
+  <si>
+    <t>EDUAA</t>
+  </si>
+  <si>
+    <t>EDVAA</t>
+  </si>
+  <si>
+    <t>EDWAA</t>
+  </si>
+  <si>
+    <t>S09B STAAF09HE-AF</t>
+  </si>
+  <si>
+    <t>EDYAA</t>
+  </si>
+  <si>
+    <t>S12B-SC6E-N</t>
+  </si>
+  <si>
+    <t>EE5AA</t>
+  </si>
+  <si>
+    <t>EE8AA</t>
+  </si>
+  <si>
+    <t>EEKAA</t>
+  </si>
+  <si>
+    <t>K-18B-HE</t>
+  </si>
+  <si>
+    <t>EF1AA</t>
+  </si>
+  <si>
+    <t>S09BE-SC6E-N</t>
+  </si>
+  <si>
+    <t>EF2AA</t>
+  </si>
+  <si>
+    <t>K60B-HC6F-N</t>
+  </si>
+  <si>
+    <t>EF8AA</t>
+  </si>
+  <si>
+    <t>S24BK-V2</t>
+  </si>
+  <si>
+    <t>EFOAA</t>
+  </si>
+  <si>
+    <t>STA1-F48HF</t>
+  </si>
+  <si>
+    <t>EFTAA</t>
+  </si>
+  <si>
+    <t>S09BE-AC6E-N</t>
+  </si>
+  <si>
+    <t>EFVAA</t>
+  </si>
+  <si>
+    <t>EFXAA</t>
+  </si>
+  <si>
+    <t>EFZAA</t>
+  </si>
+  <si>
+    <t>EG1AA</t>
+  </si>
+  <si>
+    <t>EG2AA</t>
+  </si>
+  <si>
+    <t>S24B STAAF24HE-BJ</t>
+  </si>
+  <si>
+    <t>EG3AA</t>
+  </si>
+  <si>
+    <t>EG4AA</t>
+  </si>
+  <si>
+    <t>EG5AA</t>
+  </si>
+  <si>
+    <t>S09B STAAF09HE-BK</t>
+  </si>
+  <si>
+    <t>EG6AA</t>
+  </si>
+  <si>
+    <t>EG7AA</t>
+  </si>
+  <si>
+    <t>EG8AA</t>
+  </si>
+  <si>
+    <t>S12B STAAF12HE-AU</t>
+  </si>
+  <si>
+    <t>EG9AA</t>
+  </si>
+  <si>
+    <t>EGAAA</t>
+  </si>
+  <si>
+    <t>S18B</t>
+  </si>
+  <si>
+    <t>EGBAA</t>
+  </si>
+  <si>
+    <t>EGCAA</t>
+  </si>
+  <si>
+    <t>EGDAA</t>
+  </si>
+  <si>
+    <t>S18B STAAF18HE-BN</t>
+  </si>
+  <si>
+    <t>EGEAA</t>
+  </si>
+  <si>
+    <t>EGFAA</t>
+  </si>
+  <si>
+    <t>EGGAA</t>
+  </si>
+  <si>
+    <t>EGHAA</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>S24BK STAAF24BE-BL</t>
+  </si>
+  <si>
+    <t>EGIAA</t>
+  </si>
+  <si>
+    <t>EGJAA</t>
+  </si>
+  <si>
+    <t>EGKAA</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>S12BK STAAF12BE-BM</t>
+  </si>
+  <si>
+    <t>EGPAA</t>
+  </si>
+  <si>
+    <t>EGQAA</t>
+  </si>
+  <si>
+    <t>EGRAA</t>
+  </si>
+  <si>
+    <t>EGSAA</t>
+  </si>
+  <si>
+    <t>EGTAA</t>
+  </si>
+  <si>
+    <t>EGUAA</t>
+  </si>
+  <si>
+    <t>EGXAA</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>S12BK STAAF12BE-BO</t>
+  </si>
+  <si>
+    <t>EGYAX</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>S12BK STAAF12BE-BQ</t>
+  </si>
+  <si>
+    <t>EGZAX</t>
+  </si>
+  <si>
+    <t>S12BK STAAF12BE-BP</t>
+  </si>
+  <si>
+    <t>EH1AA</t>
+  </si>
+  <si>
+    <t>AR12TSGYAWKW</t>
+  </si>
+  <si>
+    <t>EH2AA</t>
+  </si>
+  <si>
+    <t>AR18TSGYAWKW</t>
+  </si>
+  <si>
+    <t>EH4AA</t>
+  </si>
+  <si>
+    <t>STA3-F60HF</t>
+  </si>
+  <si>
+    <t>EH6AA</t>
+  </si>
+  <si>
+    <t>S09BK STAAF09BE-BR</t>
+  </si>
+  <si>
+    <t>EIKAA</t>
+  </si>
+  <si>
+    <t>S12BK STAAF12BE-CC</t>
+  </si>
+  <si>
+    <t>EIPAX</t>
+  </si>
+  <si>
+    <t>S12B STAAF12HE-BY</t>
+  </si>
+  <si>
+    <t>EIQAX</t>
+  </si>
+  <si>
+    <t>S12B STAAF12HE-CA</t>
+  </si>
+  <si>
+    <t>EIRAX</t>
+  </si>
+  <si>
+    <t>S12B</t>
+  </si>
+  <si>
+    <t>EISAX</t>
+  </si>
+  <si>
+    <t>EITAX</t>
+  </si>
+  <si>
+    <t>S09B STAAF09HE-BZ</t>
+  </si>
+  <si>
+    <t>EIYAX</t>
+  </si>
+  <si>
+    <t>EIZAX</t>
+  </si>
+  <si>
+    <t>EJ1AX</t>
+  </si>
+  <si>
+    <t>EJ2AX</t>
+  </si>
+  <si>
+    <t>EJ3AX</t>
+  </si>
+  <si>
+    <t>EJ4AA</t>
+  </si>
+  <si>
+    <t>EJ5AA</t>
+  </si>
+  <si>
+    <t>S18BK</t>
+  </si>
+  <si>
+    <t>EJ6AA</t>
+  </si>
+  <si>
+    <t>S24BK</t>
+  </si>
+  <si>
+    <t>EJ7AA</t>
+  </si>
+  <si>
+    <t>EJAAA</t>
+  </si>
+  <si>
+    <t>S12BK STAAF12BE-BU</t>
+  </si>
+  <si>
+    <t>EJBND</t>
+  </si>
+  <si>
+    <t>Мобильный гофра</t>
+  </si>
+  <si>
+    <t>EJCAX</t>
+  </si>
+  <si>
+    <t>YAC-M09OA521 OUT</t>
+  </si>
+  <si>
+    <t>EJDAX</t>
+  </si>
+  <si>
+    <t>YAC-M12OA521 OUT</t>
+  </si>
+  <si>
+    <t>EJEAX</t>
+  </si>
+  <si>
+    <t>YAC-M18OA521 OUT</t>
+  </si>
+  <si>
+    <t>EJFAX</t>
+  </si>
+  <si>
+    <t>EJGAX</t>
+  </si>
+  <si>
+    <t>EJHAX</t>
+  </si>
+  <si>
+    <t>EJIAA</t>
+  </si>
+  <si>
+    <t>EJJAA</t>
+  </si>
+  <si>
+    <t>S18B STAAF18HE-CI</t>
+  </si>
+  <si>
+    <t>EJKAA</t>
+  </si>
+  <si>
+    <t>EJLAA</t>
+  </si>
+  <si>
+    <t>EJMAA</t>
+  </si>
+  <si>
+    <t>EJNAA</t>
+  </si>
+  <si>
+    <t>S12B STAAF12HE-CF</t>
+  </si>
+  <si>
+    <t>EJOAA</t>
+  </si>
+  <si>
+    <t>EJPAA</t>
+  </si>
+  <si>
+    <t>EJQAA</t>
+  </si>
+  <si>
+    <t>EJTAA</t>
+  </si>
+  <si>
+    <t>EJUAA</t>
+  </si>
+  <si>
+    <t>EJVAA</t>
+  </si>
+  <si>
+    <t>S12BK STAAF12BE-BS</t>
+  </si>
+  <si>
+    <t>EJWAA</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>STAAF12BE-BT</t>
+  </si>
+  <si>
+    <t>EJXAA</t>
+  </si>
+  <si>
+    <t>S18BK STAAF18BE-BV</t>
+  </si>
+  <si>
+    <t>EJYAA</t>
+  </si>
+  <si>
+    <t>EJZAX</t>
+  </si>
+  <si>
+    <t>EK1AX</t>
+  </si>
+  <si>
+    <t>S09BK STAAF09BE-CD</t>
+  </si>
+  <si>
+    <t>EK3AX</t>
+  </si>
+  <si>
+    <t>S09B</t>
+  </si>
+  <si>
+    <t>EK4AX</t>
+  </si>
+  <si>
+    <t>EK5AX</t>
+  </si>
+  <si>
+    <t>EK6AX</t>
+  </si>
+  <si>
+    <t>EK7AX</t>
+  </si>
+  <si>
+    <t>EKBAX</t>
+  </si>
+  <si>
+    <t>S12BK STAAF12BE-CG</t>
+  </si>
+  <si>
+    <t>EKCAX</t>
+  </si>
+  <si>
+    <t>STAAF12BE-BQ</t>
+  </si>
+  <si>
+    <t>EKDAX</t>
+  </si>
+  <si>
+    <t>S12BK STAAF12BE-CM</t>
+  </si>
+  <si>
+    <t>EKEAX</t>
+  </si>
+  <si>
+    <t>S18BE STAAF18HE-CR</t>
+  </si>
+  <si>
+    <t>EKFAX</t>
+  </si>
+  <si>
+    <t>S18B STAAF18HE-CR</t>
+  </si>
+  <si>
+    <t>EKGAX</t>
+  </si>
+  <si>
+    <t>EKHAX</t>
+  </si>
+  <si>
+    <t>EKIAX</t>
+  </si>
+  <si>
+    <t>EKJAX</t>
+  </si>
+  <si>
+    <t>EKKAX</t>
+  </si>
+  <si>
+    <t>S09B STAAF09HE-CQ</t>
+  </si>
+  <si>
+    <t>EKLAX</t>
+  </si>
+  <si>
+    <t>EKNAX</t>
+  </si>
+  <si>
+    <t>S18B STAAF18HE-CH</t>
+  </si>
+  <si>
+    <t>EKOAX</t>
+  </si>
+  <si>
+    <t>EKPAX</t>
+  </si>
+  <si>
+    <t>EKQAX</t>
+  </si>
+  <si>
+    <t>EKRAX</t>
+  </si>
+  <si>
+    <t>S18B STAAF18HE-CJ</t>
+  </si>
+  <si>
+    <t>EKSAX</t>
+  </si>
+  <si>
+    <t>EKTAX</t>
+  </si>
+  <si>
+    <t>EKUAX</t>
+  </si>
+  <si>
+    <t>EKVAX</t>
+  </si>
+  <si>
+    <t>S18B STAAF18HE-CK</t>
+  </si>
+  <si>
+    <t>EKWAX</t>
+  </si>
+  <si>
+    <t>EKXAX</t>
+  </si>
+  <si>
+    <t>EKYAX</t>
+  </si>
+  <si>
+    <t>EKZAX</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>S12BK STAAF12BE-СN</t>
+  </si>
+  <si>
+    <t>EL1AX</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>S12BK STAAF12BE-СO</t>
+  </si>
+  <si>
+    <t>EL2AX</t>
+  </si>
+  <si>
+    <t>S12B-STAAF12HE-BY</t>
+  </si>
+  <si>
+    <t>EMIAX</t>
+  </si>
+  <si>
+    <t>S12BK STAAF12BE-CS</t>
+  </si>
+  <si>
+    <t>EMJAX</t>
+  </si>
+  <si>
+    <t>S24B STAAF24HE-CU</t>
+  </si>
+  <si>
+    <t>EMKAX</t>
+  </si>
+  <si>
+    <t>EMOAX</t>
+  </si>
+  <si>
+    <t>EMWAX</t>
+  </si>
+  <si>
+    <t>EN5AX</t>
+  </si>
+  <si>
+    <t>S24BK STAAF24BE-CV</t>
+  </si>
+  <si>
+    <t>EN6AX</t>
+  </si>
+  <si>
+    <t>EN7AX</t>
+  </si>
+  <si>
+    <t>S18BK STAAF18BE-CT</t>
+  </si>
+  <si>
+    <t>EN8AX</t>
+  </si>
+  <si>
+    <t>S12B-STAAF12HE-СA</t>
+  </si>
+  <si>
+    <t>ENHAX</t>
+  </si>
+  <si>
+    <t>ENJAX</t>
+  </si>
+  <si>
+    <t>ENLAX</t>
+  </si>
+  <si>
+    <t>ENMAX</t>
+  </si>
+  <si>
+    <t>ENNAX</t>
+  </si>
+  <si>
+    <t>ENOAA</t>
+  </si>
+  <si>
+    <t>ENPAX</t>
+  </si>
+  <si>
+    <t>ENQAX</t>
+  </si>
+  <si>
+    <t>ENSAX</t>
+  </si>
+  <si>
+    <t>ENTAX</t>
+  </si>
+  <si>
+    <t>S12B STAAF12HE-CX</t>
+  </si>
+  <si>
+    <t>ENUAX</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>S09B STAAF09HE-CW</t>
+  </si>
+  <si>
+    <t>ENVAX</t>
+  </si>
+  <si>
+    <t>YAC-M09OA522 OUT</t>
+  </si>
+  <si>
+    <t>ENWAX</t>
+  </si>
+  <si>
+    <t>ENXAX</t>
+  </si>
+  <si>
+    <t>ENYAX</t>
+  </si>
+  <si>
+    <t>ENZAX</t>
+  </si>
+  <si>
+    <t>EO1AX</t>
+  </si>
+  <si>
+    <t>EO2AX</t>
+  </si>
+  <si>
+    <t>YAC-M18OA522 OUT</t>
+  </si>
+  <si>
+    <t>EO3AX</t>
+  </si>
+  <si>
+    <t>EO4AX</t>
+  </si>
+  <si>
+    <t>EO5AX</t>
+  </si>
+  <si>
+    <t>S18B STAAF18HE-СY</t>
+  </si>
+  <si>
+    <t>EO6AX</t>
+  </si>
+  <si>
+    <t>EOJAX</t>
+  </si>
+  <si>
+    <t>S12BK STAAF12BE-BT</t>
+  </si>
+  <si>
+    <t>EOKAX</t>
+  </si>
+  <si>
+    <t>S09B STAAF09HE-CZ</t>
+  </si>
+  <si>
+    <t>EOLAX</t>
+  </si>
+  <si>
+    <t>EOMAX</t>
+  </si>
+  <si>
+    <t>EONAX</t>
+  </si>
+  <si>
+    <t>EOOAX</t>
+  </si>
+  <si>
+    <t>EOPAX</t>
+  </si>
+  <si>
+    <t>EOVAX</t>
+  </si>
+  <si>
+    <t>EOYAX</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>EP9AX</t>
+  </si>
+  <si>
+    <t>S12B STAAF12HE-DB</t>
+  </si>
+  <si>
+    <t>EPAAX</t>
+  </si>
+  <si>
+    <t>EPOAX</t>
+  </si>
+  <si>
+    <t>S09B STAAF09HE-DD</t>
+  </si>
+  <si>
+    <t>EPPAX</t>
+  </si>
+  <si>
+    <t>EPQAX</t>
+  </si>
+  <si>
+    <t>EPRAX</t>
+  </si>
+  <si>
+    <t>EQ5AX</t>
+  </si>
+  <si>
+    <t>SHVSTCBAF12BE</t>
+  </si>
+  <si>
+    <t>EQ6AX</t>
+  </si>
+  <si>
+    <t>SHVSTD2AF18BE</t>
+  </si>
+  <si>
+    <t>EQ7AX</t>
+  </si>
+  <si>
+    <t>SHVSTE2AF24BE</t>
+  </si>
+  <si>
+    <t>EQ8AX</t>
+  </si>
+  <si>
+    <t>EQLAX</t>
+  </si>
+  <si>
+    <t>S09BK STAAF09BE-DE</t>
+  </si>
+  <si>
+    <t>EQMAX</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>ARTSTA3AF07HE</t>
+  </si>
+  <si>
+    <t>EQNAX</t>
+  </si>
+  <si>
+    <t>ARTSTA1AF09HE</t>
+  </si>
+  <si>
+    <t>EQPAX</t>
+  </si>
+  <si>
+    <t>ARTSTB2AF12HE</t>
+  </si>
+  <si>
+    <t>EQRAX</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>ARTSTB4AF09BE</t>
+  </si>
+  <si>
+    <t>EQSAX</t>
+  </si>
+  <si>
+    <t>ARTSTB3AF12BE</t>
+  </si>
+  <si>
+    <t>ERDAX</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>S12BK STAAF12BE-DF</t>
+  </si>
+  <si>
+    <t>EREAX</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>ARTSTB9AF12BE</t>
+  </si>
+  <si>
+    <t>ESAAX</t>
+  </si>
+  <si>
+    <t>ESBAX</t>
+  </si>
+  <si>
+    <t>EJ9AA</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,7 +1325,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -44,15 +1344,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -66,19 +1374,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,32 +1390,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,16 +1405,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,16 +1436,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,7 +1466,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,7 +1475,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FF87CEEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7FFFD4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8F0C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEDEDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,7 +1517,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,25 +1547,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,13 +1595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,19 +1613,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,13 +1655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,13 +1673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,53 +1685,56 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -411,23 +1765,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,15 +1782,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,157 +1812,174 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="34"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -667,21 +2014,22 @@
     <cellStyle name="Accent1" xfId="31" builtinId="29"/>
     <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
     <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Обычный 2" xfId="34"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -693,9 +2041,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -709,7 +2057,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -721,7 +2069,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -733,14 +2081,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -773,9 +2121,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -805,7 +2153,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -950,26 +2298,2965 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozenSplit"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="38.1388888888889" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.66666666666667"/>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1388888888889" style="1"/>
+    <col min="3" max="3" width="30.4259259259259" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="38.1388888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
-        <v>22221111</v>
-      </c>
-      <c r="B1">
+    <row r="1" ht="30" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" ht="30" customHeight="1" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" ht="30" customHeight="1" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" ht="30" customHeight="1" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" ht="30" customHeight="1" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" ht="30" customHeight="1" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" ht="30" customHeight="1" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" ht="30" customHeight="1" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" ht="30" customHeight="1" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" ht="30" customHeight="1" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" ht="30" customHeight="1" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" ht="30" customHeight="1" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" ht="30" customHeight="1" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" ht="30" customHeight="1" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" ht="30" customHeight="1" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" ht="30" customHeight="1" spans="1:3">
+      <c r="A44" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="1:3">
+      <c r="A45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="1:3">
+      <c r="A46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" ht="30" customHeight="1" spans="1:3">
+      <c r="A47" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" ht="30" customHeight="1" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" ht="30" customHeight="1" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" ht="30" customHeight="1" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" ht="30" customHeight="1" spans="1:3">
+      <c r="A51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" ht="30" customHeight="1" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" ht="30" customHeight="1" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" ht="30" customHeight="1" spans="1:3">
+      <c r="A54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" ht="30" customHeight="1" spans="1:3">
+      <c r="A55" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" ht="30" customHeight="1" spans="1:3">
+      <c r="A56" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" ht="30" customHeight="1" spans="1:3">
+      <c r="A57" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" ht="30" customHeight="1" spans="1:3">
+      <c r="A58" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" ht="30" customHeight="1" spans="1:3">
+      <c r="A59" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" ht="30" customHeight="1" spans="1:3">
+      <c r="A60" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" ht="30" customHeight="1" spans="1:3">
+      <c r="A61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" ht="30" customHeight="1" spans="1:3">
+      <c r="A62" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" ht="30" customHeight="1" spans="1:3">
+      <c r="A63" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" ht="30" customHeight="1" spans="1:3">
+      <c r="A64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" ht="30" customHeight="1" spans="1:3">
+      <c r="A65" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" ht="30" customHeight="1" spans="1:3">
+      <c r="A66" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" ht="30" customHeight="1" spans="1:3">
+      <c r="A67" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" ht="30" customHeight="1" spans="1:3">
+      <c r="A68" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" ht="30" customHeight="1" spans="1:3">
+      <c r="A69" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" ht="30" customHeight="1" spans="1:3">
+      <c r="A70" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" ht="30" customHeight="1" spans="1:3">
+      <c r="A71" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" ht="30" customHeight="1" spans="1:3">
+      <c r="A72" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" ht="30" customHeight="1" spans="1:3">
+      <c r="A73" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" ht="30" customHeight="1" spans="1:3">
+      <c r="A74" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" ht="30" customHeight="1" spans="1:3">
+      <c r="A75" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" ht="30" customHeight="1" spans="1:3">
+      <c r="A76" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" ht="30" customHeight="1" spans="1:3">
+      <c r="A77" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" ht="30" customHeight="1" spans="1:3">
+      <c r="A78" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" ht="30" customHeight="1" spans="1:3">
+      <c r="A79" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" ht="30" customHeight="1" spans="1:3">
+      <c r="A80" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" ht="30" customHeight="1" spans="1:3">
+      <c r="A81" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" ht="30" customHeight="1" spans="1:3">
+      <c r="A82" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" ht="30" customHeight="1" spans="1:3">
+      <c r="A83" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" ht="30" customHeight="1" spans="1:3">
+      <c r="A84" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" ht="30" customHeight="1" spans="1:3">
+      <c r="A85" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" ht="30" customHeight="1" spans="1:3">
+      <c r="A86" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" ht="30" customHeight="1" spans="1:3">
+      <c r="A87" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" ht="30" customHeight="1" spans="1:3">
+      <c r="A88" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" ht="30" customHeight="1" spans="1:3">
+      <c r="A89" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" ht="30" customHeight="1" spans="1:3">
+      <c r="A90" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" ht="30" customHeight="1" spans="1:3">
+      <c r="A91" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" ht="30" customHeight="1" spans="1:3">
+      <c r="A92" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" ht="30" customHeight="1" spans="1:3">
+      <c r="A93" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" ht="30" customHeight="1" spans="1:3">
+      <c r="A94" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" ht="30" customHeight="1" spans="1:3">
+      <c r="A95" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" ht="30" customHeight="1" spans="1:3">
+      <c r="A96" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" ht="30" customHeight="1" spans="1:3">
+      <c r="A97" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" ht="30" customHeight="1" spans="1:3">
+      <c r="A98" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" ht="30" customHeight="1" spans="1:3">
+      <c r="A99" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" ht="30" customHeight="1" spans="1:3">
+      <c r="A100" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" ht="30" customHeight="1" spans="1:3">
+      <c r="A101" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" ht="30" customHeight="1" spans="1:3">
+      <c r="A102" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" ht="30" customHeight="1" spans="1:3">
+      <c r="A103" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" ht="30" customHeight="1" spans="1:3">
+      <c r="A104" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="105" ht="30" customHeight="1" spans="1:3">
+      <c r="A105" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" ht="30" customHeight="1" spans="1:3">
+      <c r="A106" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" ht="30" customHeight="1" spans="1:3">
+      <c r="A107" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" ht="30" customHeight="1" spans="1:3">
+      <c r="A108" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" ht="30" customHeight="1" spans="1:3">
+      <c r="A109" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" ht="30" customHeight="1" spans="1:3">
+      <c r="A110" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" ht="30" customHeight="1" spans="1:3">
+      <c r="A111" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" ht="30" customHeight="1" spans="1:3">
+      <c r="A112" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" ht="30" customHeight="1" spans="1:3">
+      <c r="A113" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" ht="30" customHeight="1" spans="1:3">
+      <c r="A114" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="115" ht="30" customHeight="1" spans="1:3">
+      <c r="A115" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="116" ht="30" customHeight="1" spans="1:3">
+      <c r="A116" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="117" ht="30" customHeight="1" spans="1:3">
+      <c r="A117" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" ht="30" customHeight="1" spans="1:3">
+      <c r="A118" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" ht="30" customHeight="1" spans="1:3">
+      <c r="A119" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" ht="30" customHeight="1" spans="1:3">
+      <c r="A120" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" ht="30" customHeight="1" spans="1:3">
+      <c r="A121" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="122" ht="30" customHeight="1" spans="1:3">
+      <c r="A122" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="123" ht="30" customHeight="1" spans="1:3">
+      <c r="A123" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="124" ht="30" customHeight="1" spans="1:3">
+      <c r="A124" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" ht="30" customHeight="1" spans="1:3">
+      <c r="A125" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="126" ht="30" customHeight="1" spans="1:3">
+      <c r="A126" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="127" ht="30" customHeight="1" spans="1:3">
+      <c r="A127" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" ht="30" customHeight="1" spans="1:3">
+      <c r="A128" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" ht="30" customHeight="1" spans="1:3">
+      <c r="A129" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" ht="30" customHeight="1" spans="1:3">
+      <c r="A130" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="131" ht="30" customHeight="1" spans="1:3">
+      <c r="A131" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="132" ht="30" customHeight="1" spans="1:3">
+      <c r="A132" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="133" ht="30" customHeight="1" spans="1:3">
+      <c r="A133" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="134" ht="30" customHeight="1" spans="1:3">
+      <c r="A134" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="135" ht="30" customHeight="1" spans="1:3">
+      <c r="A135" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="136" ht="30" customHeight="1" spans="1:3">
+      <c r="A136" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" ht="30" customHeight="1" spans="1:3">
+      <c r="A137" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="138" ht="30" customHeight="1" spans="1:3">
+      <c r="A138" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="139" ht="30" customHeight="1" spans="1:3">
+      <c r="A139" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B139" s="6"/>
+      <c r="C139" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="140" ht="30" customHeight="1" spans="1:3">
+      <c r="A140" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B140" s="6"/>
+      <c r="C140" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="141" ht="30" customHeight="1" spans="1:3">
+      <c r="A141" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="142" ht="30" customHeight="1" spans="1:3">
+      <c r="A142" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="143" ht="30" customHeight="1" spans="1:3">
+      <c r="A143" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="144" ht="30" customHeight="1" spans="1:3">
+      <c r="A144" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="145" ht="30" customHeight="1" spans="1:3">
+      <c r="A145" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="146" ht="30" customHeight="1" spans="1:3">
+      <c r="A146" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="147" ht="30" customHeight="1" spans="1:3">
+      <c r="A147" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="148" ht="30" customHeight="1" spans="1:3">
+      <c r="A148" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="149" ht="30" customHeight="1" spans="1:3">
+      <c r="A149" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="150" ht="30" customHeight="1" spans="1:3">
+      <c r="A150" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="151" ht="30" customHeight="1" spans="1:3">
+      <c r="A151" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="152" ht="30" customHeight="1" spans="1:3">
+      <c r="A152" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="153" ht="30" customHeight="1" spans="1:3">
+      <c r="A153" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="154" ht="30" customHeight="1" spans="1:3">
+      <c r="A154" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="155" ht="30" customHeight="1" spans="1:3">
+      <c r="A155" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="156" ht="30" customHeight="1" spans="1:3">
+      <c r="A156" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="157" ht="30" customHeight="1" spans="1:3">
+      <c r="A157" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="158" ht="30" customHeight="1" spans="1:3">
+      <c r="A158" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="159" ht="30" customHeight="1" spans="1:3">
+      <c r="A159" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="160" ht="30" customHeight="1" spans="1:3">
+      <c r="A160" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="161" ht="30" customHeight="1" spans="1:3">
+      <c r="A161" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="162" ht="30" customHeight="1" spans="1:3">
+      <c r="A162" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="163" ht="30" customHeight="1" spans="1:3">
+      <c r="A163" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="164" ht="30" customHeight="1" spans="1:3">
+      <c r="A164" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="165" ht="30" customHeight="1" spans="1:3">
+      <c r="A165" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="166" ht="30" customHeight="1" spans="1:3">
+      <c r="A166" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="167" ht="30" customHeight="1" spans="1:3">
+      <c r="A167" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="168" ht="30" customHeight="1" spans="1:3">
+      <c r="A168" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="169" ht="30" customHeight="1" spans="1:3">
+      <c r="A169" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="170" ht="30" customHeight="1" spans="1:3">
+      <c r="A170" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="171" ht="30" customHeight="1" spans="1:3">
+      <c r="A171" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="172" ht="30" customHeight="1" spans="1:3">
+      <c r="A172" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="173" ht="30" customHeight="1" spans="1:3">
+      <c r="A173" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="174" ht="30" customHeight="1" spans="1:3">
+      <c r="A174" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="175" ht="30" customHeight="1" spans="1:3">
+      <c r="A175" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="176" ht="30" customHeight="1" spans="1:3">
+      <c r="A176" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="177" ht="30" customHeight="1" spans="1:3">
+      <c r="A177" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B177" s="6"/>
+      <c r="C177" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="178" ht="30" customHeight="1" spans="1:3">
+      <c r="A178" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="179" ht="30" customHeight="1" spans="1:3">
+      <c r="A179" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="180" ht="30" customHeight="1" spans="1:3">
+      <c r="A180" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="181" ht="30" customHeight="1" spans="1:3">
+      <c r="A181" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="182" ht="30" customHeight="1" spans="1:3">
+      <c r="A182" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="183" ht="30" customHeight="1" spans="1:3">
+      <c r="A183" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="184" ht="30" customHeight="1" spans="1:3">
+      <c r="A184" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="185" ht="30" customHeight="1" spans="1:3">
+      <c r="A185" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="186" ht="30" customHeight="1" spans="1:3">
+      <c r="A186" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="187" ht="30" customHeight="1" spans="1:3">
+      <c r="A187" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="188" ht="30" customHeight="1" spans="1:3">
+      <c r="A188" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="189" ht="30" customHeight="1" spans="1:3">
+      <c r="A189" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="190" ht="30" customHeight="1" spans="1:3">
+      <c r="A190" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="191" ht="30" customHeight="1" spans="1:3">
+      <c r="A191" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="192" ht="30" customHeight="1" spans="1:3">
+      <c r="A192" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="193" ht="30" customHeight="1" spans="1:3">
+      <c r="A193" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="194" ht="30" customHeight="1" spans="1:3">
+      <c r="A194" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195" ht="30" customHeight="1" spans="1:3">
+      <c r="A195" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="196" ht="30" customHeight="1" spans="1:3">
+      <c r="A196" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="197" ht="30" customHeight="1" spans="1:3">
+      <c r="A197" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="198" ht="30" customHeight="1" spans="1:3">
+      <c r="A198" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="199" ht="30" customHeight="1" spans="1:3">
+      <c r="A199" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="200" ht="30" customHeight="1" spans="1:3">
+      <c r="A200" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="201" ht="30" customHeight="1" spans="1:3">
+      <c r="A201" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="202" ht="30" customHeight="1" spans="1:3">
+      <c r="A202" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="203" ht="30" customHeight="1" spans="1:3">
+      <c r="A203" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="204" ht="30" customHeight="1" spans="1:3">
+      <c r="A204" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="205" ht="30" customHeight="1" spans="1:3">
+      <c r="A205" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="206" ht="30" customHeight="1" spans="1:3">
+      <c r="A206" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="207" ht="30" customHeight="1" spans="1:3">
+      <c r="A207" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="208" ht="30" customHeight="1" spans="1:3">
+      <c r="A208" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="209" ht="30" customHeight="1" spans="1:3">
+      <c r="A209" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="210" ht="30" customHeight="1" spans="1:3">
+      <c r="A210" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="211" ht="30" customHeight="1" spans="1:3">
+      <c r="A211" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="212" ht="30" customHeight="1" spans="1:3">
+      <c r="A212" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="213" ht="30" customHeight="1" spans="1:3">
+      <c r="A213" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="214" ht="30" customHeight="1" spans="1:3">
+      <c r="A214" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="215" ht="30" customHeight="1" spans="1:3">
+      <c r="A215" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="216" ht="30" customHeight="1" spans="1:3">
+      <c r="A216" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="217" ht="30" customHeight="1" spans="1:3">
+      <c r="A217" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="218" ht="30" customHeight="1" spans="1:3">
+      <c r="A218" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="219" ht="30" customHeight="1" spans="1:3">
+      <c r="A219" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="220" ht="30" customHeight="1" spans="1:3">
+      <c r="A220" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="221" ht="30" customHeight="1" spans="1:3">
+      <c r="A221" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="222" ht="30" customHeight="1" spans="1:3">
+      <c r="A222" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="223" ht="30" customHeight="1" spans="1:3">
+      <c r="A223" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="224" ht="30" customHeight="1" spans="1:3">
+      <c r="A224" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="225" ht="30" customHeight="1" spans="1:3">
+      <c r="A225" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="226" ht="30" customHeight="1" spans="1:3">
+      <c r="A226" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="227" ht="30" customHeight="1" spans="1:3">
+      <c r="A227" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="228" ht="30" customHeight="1" spans="1:3">
+      <c r="A228" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="229" ht="30" customHeight="1" spans="1:3">
+      <c r="A229" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="230" ht="30" customHeight="1" spans="1:3">
+      <c r="A230" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="231" ht="30" customHeight="1" spans="1:3">
+      <c r="A231" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="232" ht="30" customHeight="1" spans="1:3">
+      <c r="A232" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="233" ht="30" customHeight="1" spans="1:3">
+      <c r="A233" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="234" ht="30" customHeight="1" spans="1:3">
+      <c r="A234" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="235" ht="30" customHeight="1" spans="1:3">
+      <c r="A235" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="236" ht="30" customHeight="1" spans="1:3">
+      <c r="A236" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="237" ht="30" customHeight="1" spans="1:3">
+      <c r="A237" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="238" ht="30" customHeight="1" spans="1:3">
+      <c r="A238" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="239" ht="30" customHeight="1" spans="1:3">
+      <c r="A239" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="240" ht="30" customHeight="1" spans="1:3">
+      <c r="A240" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="241" ht="30" customHeight="1" spans="1:3">
+      <c r="A241" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="242" ht="30" customHeight="1" spans="1:3">
+      <c r="A242" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="243" ht="30" customHeight="1" spans="1:3">
+      <c r="A243" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="244" ht="30" customHeight="1" spans="1:3">
+      <c r="A244" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="245" ht="30" customHeight="1" spans="1:3">
+      <c r="A245" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="246" ht="30" customHeight="1" spans="1:3">
+      <c r="A246" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="247" ht="30" customHeight="1" spans="1:3">
+      <c r="A247" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="248" ht="30" customHeight="1" spans="1:3">
+      <c r="A248" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="249" ht="30" customHeight="1" spans="1:3">
+      <c r="A249" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="250" ht="30" customHeight="1" spans="1:3">
+      <c r="A250" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="251" ht="30" customHeight="1" spans="1:3">
+      <c r="A251" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="252" ht="30" customHeight="1" spans="1:3">
+      <c r="A252" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="253" ht="30" customHeight="1" spans="1:3">
+      <c r="A253" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="254" ht="30" customHeight="1" spans="1:3">
+      <c r="A254" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="255" ht="30" customHeight="1" spans="1:3">
+      <c r="A255" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="256" ht="30" customHeight="1" spans="1:3">
+      <c r="A256" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="257" ht="30" customHeight="1" spans="1:3">
+      <c r="A257" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="258" ht="30" customHeight="1" spans="1:3">
+      <c r="A258" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="259" ht="30" customHeight="1" spans="1:3">
+      <c r="A259" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="260" ht="30" customHeight="1" spans="1:3">
+      <c r="A260" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="261" ht="30" customHeight="1" spans="1:3">
+      <c r="A261" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="262" ht="30" customHeight="1" spans="1:3">
+      <c r="A262" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="263" ht="30" customHeight="1" spans="1:3">
+      <c r="A263" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="264" ht="30" customHeight="1" spans="1:3">
+      <c r="A264" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="265" ht="30" customHeight="1" spans="1:3">
+      <c r="A265" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="266" ht="30" customHeight="1" spans="1:3">
+      <c r="A266" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="267" ht="30" customHeight="1" spans="1:3">
+      <c r="A267" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="268" ht="30" customHeight="1" spans="1:3">
+      <c r="A268" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="269" ht="30" customHeight="1" spans="1:3">
+      <c r="A269" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="270" ht="30" customHeight="1" spans="1:3">
+      <c r="A270" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="271" ht="30" customHeight="1" spans="1:3">
+      <c r="A271" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="272" ht="30" customHeight="1" spans="1:3">
+      <c r="A272" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="273" ht="30" customHeight="1" spans="1:3">
+      <c r="A273" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="274" ht="30" customHeight="1" spans="1:3">
+      <c r="A274" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>215</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BG274">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
